--- a/benhap.xlsx
+++ b/benhap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taoda\test\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6567AA1F-9AF8-43B9-ADC7-30622A6AF80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FD6566-F9AA-44A5-9D28-3E6045DD7B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Stt</t>
   </si>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>Người báo đẻ</t>
+  </si>
+  <si>
+    <t>F202300609</t>
+  </si>
+  <si>
+    <t>F202300609ID</t>
+  </si>
+  <si>
+    <t>Nâu</t>
+  </si>
+  <si>
+    <t>Senepol</t>
+  </si>
+  <si>
+    <t>Cái</t>
+  </si>
+  <si>
+    <t>I0920B01129</t>
+  </si>
+  <si>
+    <t>982 123708768054</t>
+  </si>
+  <si>
+    <t>Droughtmaster</t>
+  </si>
+  <si>
+    <t>C2.17</t>
   </si>
 </sst>
 </file>
@@ -113,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,13 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -447,7 +478,49 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45182</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>